--- a/AOF2016_schedule.xlsx
+++ b/AOF2016_schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Work package</t>
   </si>
@@ -50,9 +50,6 @@
     <t>T1.3</t>
   </si>
   <si>
-    <t>T2.1</t>
-  </si>
-  <si>
     <t>T2.2</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>T3.3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -84,13 +78,37 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>WP4</t>
+  </si>
+  <si>
+    <t>T3.4</t>
+  </si>
+  <si>
+    <t>T4.1</t>
+  </si>
+  <si>
+    <t>T4.2</t>
+  </si>
+  <si>
+    <t>T4.3</t>
+  </si>
+  <si>
+    <t>Visit INSA</t>
+  </si>
+  <si>
+    <t>Visit TU Wien</t>
+  </si>
+  <si>
+    <t>Visit FU Hagen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,17 +191,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -188,6 +234,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,15 +278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -227,8 +295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019425" y="685800"/>
-          <a:ext cx="1600200" cy="142875"/>
+          <a:off x="2914650" y="790576"/>
+          <a:ext cx="304799" cy="98475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -243,6 +311,786 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="923926"/>
+          <a:ext cx="295275" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="1066800"/>
+          <a:ext cx="476249" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905251" y="1209676"/>
+          <a:ext cx="323850" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="1362075"/>
+          <a:ext cx="495300" cy="98475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="1495425"/>
+          <a:ext cx="323850" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="1638300"/>
+          <a:ext cx="323850" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="1781175"/>
+          <a:ext cx="285750" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="1933575"/>
+          <a:ext cx="657226" cy="98475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="2076450"/>
+          <a:ext cx="647700" cy="98475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="2495550"/>
+          <a:ext cx="962025" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="2371725"/>
+          <a:ext cx="647700" cy="88950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572124" y="2209800"/>
+          <a:ext cx="981075" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914651" y="419100"/>
+          <a:ext cx="304800" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905251" y="695325"/>
+          <a:ext cx="304800" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="552450"/>
+          <a:ext cx="647699" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -525,237 +1373,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T13"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+    <col min="5" max="16" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E1" s="3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E1" s="17">
         <v>2017</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17">
         <v>2018</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17">
         <v>2019</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17">
         <v>2020</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AOF2016_schedule.xlsx
+++ b/AOF2016_schedule.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\svn\Applications\AOF2016Simon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,115 +24,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Work package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit INSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit TU Wien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit FU Hagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4.3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+  <si>
+    <t>Work package</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>T1.1</t>
+  </si>
+  <si>
+    <t>T1.2</t>
+  </si>
+  <si>
+    <t>T1.3</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>T2.2</t>
+  </si>
+  <si>
+    <t>T2.3</t>
+  </si>
+  <si>
+    <t>WP3</t>
+  </si>
+  <si>
+    <t>T3.1</t>
+  </si>
+  <si>
+    <t>T3.2</t>
+  </si>
+  <si>
+    <t>T3.3</t>
+  </si>
+  <si>
+    <t>WP4</t>
+  </si>
+  <si>
+    <t>T4.1</t>
+  </si>
+  <si>
+    <t>T4.2</t>
+  </si>
+  <si>
+    <t>T4.3</t>
+  </si>
+  <si>
+    <t>Mob.2 TU Wien</t>
+  </si>
+  <si>
+    <t>Mob.1 INSA</t>
+  </si>
+  <si>
+    <t>Mob.3 FU Hagen</t>
+  </si>
+  <si>
+    <t>T2.1</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Salary Post-Doc</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Project total €</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -142,6 +146,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -189,138 +200,101 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -379,29 +353,45 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>19080</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>323640</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -433,20 +423,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304200</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -478,20 +468,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>181080</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>323640</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -523,20 +513,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>471240</xdr:colOff>
+      <xdr:colOff>4515</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -568,20 +558,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>171360</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>471600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347775</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -613,20 +603,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>471600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347775</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -658,20 +648,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>323640</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -703,26 +693,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>152190</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6483240" y="1828800"/>
-          <a:ext cx="423720" cy="107640"/>
+          <a:off x="4886325" y="1838190"/>
+          <a:ext cx="676065" cy="98280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -749,64 +739,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>323280</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6764400" y="1980720"/>
-          <a:ext cx="795600" cy="98280"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -838,20 +783,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304200</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -883,20 +828,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>323280</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -928,20 +873,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>323280</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -974,24 +919,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>28605</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>28635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>333165</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>113955</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952800" y="419040"/>
+          <a:off x="3324255" y="409635"/>
           <a:ext cx="304560" cy="85320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1019,24 +964,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>18885</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>323445</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5358600" y="552240"/>
+          <a:off x="4371810" y="552315"/>
           <a:ext cx="304560" cy="85320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1063,20 +1008,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>323280</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1109,55 +1054,328 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.080971659919"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5910931174089"/>
-    <col collapsed="false" hidden="false" max="16" min="5" style="0" width="5.30769230769231"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="14.140625"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="15" width="5.28515625"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="1024" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="1" t="n">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
         <v>2018</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="n">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
         <v>2019</v>
       </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="n">
+      <c r="J1" s="1">
         <v>2020</v>
       </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="n">
+      <c r="N1" s="1">
         <v>2021</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="23">
+        <v>2018</v>
+      </c>
+      <c r="R1" s="23">
+        <v>2019</v>
+      </c>
+      <c r="S1" s="23">
+        <v>2020</v>
+      </c>
+      <c r="T1" s="23">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1170,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
@@ -1182,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>2</v>
@@ -1193,242 +1411,327 @@
       <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>5</v>
+      <c r="P2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>34434</v>
+      </c>
+      <c r="R2">
+        <v>106172</v>
+      </c>
+      <c r="S2">
+        <v>107607</v>
+      </c>
+      <c r="T2">
+        <v>72694</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2500</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="T3">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4">
+        <v>1000</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>5500</v>
+      </c>
+      <c r="R5">
+        <v>5500</v>
+      </c>
+      <c r="S5">
+        <v>5500</v>
+      </c>
+      <c r="T5">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+      <c r="R6">
+        <v>1000</v>
+      </c>
+      <c r="S6">
+        <v>2000</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(Q2:Q6)</f>
+        <v>40934</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:T7" si="0">SUM(R2:R6)</f>
+        <v>116172</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>117107</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>81194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="22">
+        <f>SUM(Q7:T7)</f>
+        <v>355407</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="E12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+    <row r="14" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+    <row r="15" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
+    <row r="16" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+    <row r="17" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="8" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>